--- a/src/test/java/com/pack/testData/UpdateJobTab (2).xlsx
+++ b/src/test/java/com/pack/testData/UpdateJobTab (2).xlsx
@@ -1089,8 +1089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AM10" sqref="AM10" activeCellId="0"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AL3" sqref="AL3" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
